--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1378818.77102144</v>
+        <v>-1381378.041588996</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>203.6148466519709</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>43.2945117796236</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>8.932035649210537</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +753,10 @@
         <v>135.0233064626824</v>
       </c>
       <c r="H3" t="n">
-        <v>89.82709352349997</v>
+        <v>89.82709352349998</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736385</v>
+        <v>9.512185486736428</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.83072347163699</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>174.7318159038283</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>87.97751425862498</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>95.64508265013377</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>306.1710240582965</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>62.85012899977543</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>131.354219099927</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>22.05778319390912</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>344.9358886581369</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>99.89574308244444</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>18.52833786981421</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>277.5227458350253</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7518808581205</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>52.54490042791339</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.7871326503977</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>33.82891891787478</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329573</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673014</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673014</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>14.75529838241519</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703273</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.799772605715943</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179972</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,7 +3673,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1509.894925138427</v>
+        <v>1887.472506971019</v>
       </c>
       <c r="C2" t="n">
-        <v>1140.932408198015</v>
+        <v>1518.509990030608</v>
       </c>
       <c r="D2" t="n">
-        <v>1140.932408198015</v>
+        <v>1160.244291423857</v>
       </c>
       <c r="E2" t="n">
-        <v>935.260845923297</v>
+        <v>774.4560388256127</v>
       </c>
       <c r="F2" t="n">
-        <v>524.2749411336894</v>
+        <v>363.4701340360054</v>
       </c>
       <c r="G2" t="n">
-        <v>109.1574891935902</v>
+        <v>363.4701340360054</v>
       </c>
       <c r="H2" t="n">
-        <v>109.1574891935902</v>
+        <v>65.42565911316227</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316234</v>
+        <v>65.42565911316227</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725632</v>
+        <v>250.5613272725624</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183949</v>
+        <v>578.7702206183939</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887446</v>
+        <v>1022.844136887444</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064183</v>
+        <v>1548.63137006418</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746181</v>
+        <v>2087.540198746178</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767916</v>
+        <v>2583.081262767913</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303805</v>
+        <v>2971.513095303802</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301003</v>
+        <v>3215.036478300998</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658117</v>
+        <v>3271.282955658114</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007347</v>
+        <v>3159.966809007344</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077313</v>
+        <v>2953.79206607731</v>
       </c>
       <c r="U2" t="n">
-        <v>2953.792066077313</v>
+        <v>2944.769807845784</v>
       </c>
       <c r="V2" t="n">
-        <v>2622.729178733743</v>
+        <v>2613.706920502214</v>
       </c>
       <c r="W2" t="n">
-        <v>2269.960523463628</v>
+        <v>2260.938265232099</v>
       </c>
       <c r="X2" t="n">
-        <v>1896.494765202548</v>
+        <v>1887.472506971019</v>
       </c>
       <c r="Y2" t="n">
-        <v>1896.494765202548</v>
+        <v>1887.472506971019</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.1555434292419</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841082</v>
+        <v>165.7683651841081</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158293</v>
+        <v>75.0339272815829</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316234</v>
+        <v>65.42565911316227</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056105</v>
+        <v>156.8733478056103</v>
       </c>
       <c r="K3" t="n">
-        <v>391.3268380794818</v>
+        <v>419.0008575360378</v>
       </c>
       <c r="L3" t="n">
-        <v>752.9010302656274</v>
+        <v>780.5750497221829</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.197926366257</v>
+        <v>1221.871945822813</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.583283102522</v>
+        <v>1689.257302559077</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.929778176383</v>
+        <v>2094.603797632937</v>
       </c>
       <c r="P3" t="n">
-        <v>2372.923010208138</v>
+        <v>2400.597029664692</v>
       </c>
       <c r="Q3" t="n">
         <v>2555.226205362918</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360.2287001934658</v>
+        <v>1897.080118544379</v>
       </c>
       <c r="C4" t="n">
-        <v>360.2287001934658</v>
+        <v>1728.143935616472</v>
       </c>
       <c r="D4" t="n">
-        <v>360.2287001934658</v>
+        <v>1578.027296204136</v>
       </c>
       <c r="E4" t="n">
-        <v>212.3156066110727</v>
+        <v>1430.114202621744</v>
       </c>
       <c r="F4" t="n">
-        <v>65.42565911316234</v>
+        <v>1430.114202621744</v>
       </c>
       <c r="G4" t="n">
-        <v>65.42565911316234</v>
+        <v>1430.114202621744</v>
       </c>
       <c r="H4" t="n">
-        <v>65.42565911316234</v>
+        <v>1430.114202621744</v>
       </c>
       <c r="I4" t="n">
-        <v>65.42565911316234</v>
+        <v>1430.114202621744</v>
       </c>
       <c r="J4" t="n">
-        <v>109.1495242182615</v>
+        <v>1473.838067726842</v>
       </c>
       <c r="K4" t="n">
-        <v>310.8381027401521</v>
+        <v>1675.526646248733</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039122</v>
+        <v>1989.145022412493</v>
       </c>
       <c r="M4" t="n">
-        <v>965.5122071220435</v>
+        <v>2330.200750630624</v>
       </c>
       <c r="N4" t="n">
-        <v>1303.893008842035</v>
+        <v>2668.581552350616</v>
       </c>
       <c r="O4" t="n">
-        <v>1600.426152235784</v>
+        <v>2965.114695744364</v>
       </c>
       <c r="P4" t="n">
-        <v>1830.640801863761</v>
+        <v>3195.329345372341</v>
       </c>
       <c r="Q4" t="n">
-        <v>1906.594412149534</v>
+        <v>3271.282955658114</v>
       </c>
       <c r="R4" t="n">
-        <v>1906.594412149534</v>
+        <v>3180.544851141309</v>
       </c>
       <c r="S4" t="n">
-        <v>1906.594412149534</v>
+        <v>3180.544851141309</v>
       </c>
       <c r="T4" t="n">
-        <v>1684.741546371519</v>
+        <v>2958.691985363294</v>
       </c>
       <c r="U4" t="n">
-        <v>1395.637578428896</v>
+        <v>2782.195201622053</v>
       </c>
       <c r="V4" t="n">
-        <v>1140.953090223009</v>
+        <v>2527.510713416166</v>
       </c>
       <c r="W4" t="n">
-        <v>851.5359201860483</v>
+        <v>2527.510713416166</v>
       </c>
       <c r="X4" t="n">
-        <v>762.6697441672356</v>
+        <v>2299.521162518149</v>
       </c>
       <c r="Y4" t="n">
-        <v>541.8771650237055</v>
+        <v>2078.728583374619</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.503030201924</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C5" t="n">
-        <v>870.5405132615124</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2748146547618</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2659.195734198231</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2659.195734198231</v>
       </c>
       <c r="X5" t="n">
-        <v>2016.242202241858</v>
+        <v>2285.729975937151</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.102870266046</v>
+        <v>2285.729975937151</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>590.8070661251691</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>590.8070661251691</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>590.8070661251691</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>590.8070661251691</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>443.9171186272587</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>276.2142820019776</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>129.9970952198354</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251691</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.758282883553</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C8" t="n">
-        <v>846.795765943141</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D8" t="n">
-        <v>488.5300673363905</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3303.325232524415</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3049.794755798251</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2718.73186845468</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.963213184566</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.497454923486</v>
+        <v>2382.341170533246</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.358122947674</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>460.171619808316</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1634.703872922951</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1380.019384717064</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1090.602214680103</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>862.6126637820859</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>641.8200846385557</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5018,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784059</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504992</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381634</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557703</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578599</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5209,7 +5209,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279803</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V13" t="n">
-        <v>1669.670361056914</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W13" t="n">
-        <v>1380.253191019953</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1152.263640121936</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>931.4710609784059</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784064</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>762.5348780504995</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2393.887426582372</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2393.887426582372</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2174.285961605313</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5501,28 +5501,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>215.8238677453433</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038343</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5732,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188011</v>
+        <v>788.0191461778174</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908942</v>
+        <v>788.0191461778174</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908942</v>
+        <v>637.9025067654817</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908942</v>
+        <v>489.9894131830886</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908942</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X22" t="n">
-        <v>974.101820392571</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490408</v>
+        <v>969.6676110080572</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188016</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,7 +6160,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290589</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925714</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490413</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171303</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892237</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D28" t="n">
-        <v>564.5188827892237</v>
+        <v>344.917417812165</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.917417812165</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812165</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.10353054737</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,16 +6892,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,19 +6947,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7102,43 +7102,43 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7166,40 +7166,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150024</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7576,22 +7576,22 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,19 +7828,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>27.95355500662248</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.95355500661995</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780281</v>
+        <v>1.622913276780366</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3155234202909</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736143</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.29451177962372</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9987361002815</v>
+        <v>242.066700451071</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>144.9326943004823</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104682</v>
+        <v>96.95340549104687</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.83072347163693</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>190.1172987294701</v>
@@ -22759,16 +22759,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>111.4811123593684</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>137.7321411304122</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>233.6093054540138</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>9.000252501565736</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>13.83034628220827</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>19.50758019582621</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>191.8807364711624</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>45.71423459433092</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194262</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194271</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>131.678664264154</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194152</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.494940240508</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1261446.276924719</v>
+        <v>1261446.27692472</v>
       </c>
     </row>
     <row r="6">
@@ -26320,16 +26320,16 @@
         <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
@@ -26341,7 +26341,7 @@
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728568</v>
@@ -26350,10 +26350,10 @@
         <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1313514.533081207</v>
+        <v>1313514.533081206</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074587</v>
+        <v>14479.05232074724</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125531</v>
+        <v>213977.8894125529</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022756</v>
+        <v>3495.241841023019</v>
       </c>
       <c r="L3" t="n">
         <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11698.02956068579</v>
+        <v>11698.02956068583</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314467</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314471</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="G4" t="n">
         <v>11167.03225179347</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>11167.03225179349</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179354</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179355</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26448,13 +26448,13 @@
         <v>19157.89151488698</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488698</v>
+        <v>19157.89151488694</v>
       </c>
       <c r="N4" t="n">
+        <v>19157.89151488692</v>
+      </c>
+      <c r="O4" t="n">
         <v>19157.89151488699</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19157.89151488698</v>
       </c>
       <c r="P4" t="n">
         <v>19157.89151488699</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106866.6399031116</v>
+        <v>106866.6399031115</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1296677.489829547</v>
+        <v>-1297037.572845264</v>
       </c>
       <c r="C6" t="n">
-        <v>-48558.70593242726</v>
+        <v>-48558.70593242855</v>
       </c>
       <c r="D6" t="n">
-        <v>-34079.65361168145</v>
+        <v>-34079.65361168139</v>
       </c>
       <c r="E6" t="n">
-        <v>-276272.7039450547</v>
+        <v>-276307.4418704904</v>
       </c>
       <c r="F6" t="n">
-        <v>49139.75786230058</v>
+        <v>49105.01993686492</v>
       </c>
       <c r="G6" t="n">
-        <v>49139.7578623006</v>
+        <v>49105.01993686498</v>
       </c>
       <c r="H6" t="n">
-        <v>49139.75786230057</v>
+        <v>49105.01993686495</v>
       </c>
       <c r="I6" t="n">
-        <v>49139.75786230057</v>
+        <v>49105.01993686488</v>
       </c>
       <c r="J6" t="n">
-        <v>-164838.1315502526</v>
+        <v>-164872.869475688</v>
       </c>
       <c r="K6" t="n">
-        <v>45644.5160212778</v>
+        <v>45609.77809584184</v>
       </c>
       <c r="L6" t="n">
-        <v>22458.62861042266</v>
+        <v>22458.6286104226</v>
       </c>
       <c r="M6" t="n">
-        <v>-43168.68133145736</v>
+        <v>-43168.68133145742</v>
       </c>
       <c r="N6" t="n">
-        <v>41886.34660405444</v>
+        <v>41886.34660405443</v>
       </c>
       <c r="O6" t="n">
-        <v>41886.34660405447</v>
+        <v>41886.34660405436</v>
       </c>
       <c r="P6" t="n">
-        <v>41886.3466040543</v>
+        <v>41886.34660405442</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491203</v>
+        <v>1078.694448491202</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.8207389145284</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491203</v>
+        <v>1078.694448491202</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209571</v>
+        <v>11.08225210209685</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.8207389145284</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776365</v>
+        <v>13.58071648776468</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145284</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776365</v>
+        <v>13.58071648776468</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.8207389145284</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776365</v>
+        <v>13.58071648776468</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>232.1071758200011</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>63.56007662017254</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>33.50229141006266</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>94.3554362891102</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>181.860186945711</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>41.30204999791664</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>186.3160951231685</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>-4.816298607236514e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436992</v>
+        <v>4.33646009443699</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215286</v>
+        <v>44.41077194215283</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907823</v>
+        <v>167.1813777907822</v>
       </c>
       <c r="J2" t="n">
-        <v>368.051629940222</v>
+        <v>368.0516299402217</v>
       </c>
       <c r="K2" t="n">
-        <v>551.61398573774</v>
+        <v>551.6139857377397</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528662</v>
+        <v>684.3259263528657</v>
       </c>
       <c r="M2" t="n">
-        <v>761.44444855731</v>
+        <v>761.4444485573096</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006292</v>
+        <v>773.7654158006287</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365713</v>
+        <v>730.6447407365708</v>
       </c>
       <c r="P2" t="n">
-        <v>623.588382155158</v>
+        <v>623.5883821551575</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231331</v>
+        <v>468.2889050231328</v>
       </c>
       <c r="R2" t="n">
-        <v>272.400161407178</v>
+        <v>272.4001614071778</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198305</v>
+        <v>98.817084401983</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339794</v>
+        <v>18.98285406339793</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549593</v>
+        <v>0.3469168075549591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528247</v>
+        <v>2.320210700528246</v>
       </c>
       <c r="H3" t="n">
-        <v>22.40835071299649</v>
+        <v>22.40835071299648</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467869</v>
+        <v>79.88444736467865</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863113</v>
+        <v>219.2090293863112</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217038</v>
+        <v>374.6631463217036</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335565</v>
+        <v>503.7808365335562</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277053</v>
+        <v>587.888474427705</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290549</v>
+        <v>603.4481330290546</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594553</v>
+        <v>552.037148559455</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736791</v>
+        <v>443.0584801736788</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498864</v>
+        <v>296.1728606498863</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871837</v>
+        <v>144.0565906871836</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612604</v>
+        <v>43.09689612603997</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164291</v>
+        <v>9.352077341164286</v>
       </c>
       <c r="U3" t="n">
         <v>0.1526454408242268</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.945186710393972</v>
+        <v>1.94518671039397</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695733</v>
+        <v>17.29447820695732</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621145</v>
+        <v>58.49706943621142</v>
       </c>
       <c r="J4" t="n">
-        <v>137.5247004248538</v>
+        <v>137.5247004248537</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166814</v>
+        <v>225.9953287166813</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889365</v>
+        <v>289.1962132889363</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120296</v>
+        <v>304.9168586120293</v>
       </c>
       <c r="N4" t="n">
-        <v>297.666617236925</v>
+        <v>297.6666172369248</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564135</v>
+        <v>274.9432997564133</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643763</v>
+        <v>235.2614908643761</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.8828617221716</v>
+        <v>162.8828617221715</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553256</v>
+        <v>87.4626679055325</v>
       </c>
       <c r="S4" t="n">
-        <v>33.8992993075022</v>
+        <v>33.89929930750218</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046967</v>
+        <v>8.311252308046962</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1061010932942168</v>
+        <v>0.1061010932942167</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31850,10 +31850,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>357.9244589488886</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135357</v>
+        <v>187.0057254135355</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927594</v>
+        <v>331.5241346927591</v>
       </c>
       <c r="L2" t="n">
-        <v>448.559511382879</v>
+        <v>448.5595113828785</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300373</v>
+        <v>531.0982153300369</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040382</v>
+        <v>544.3523522040377</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148845</v>
+        <v>500.5465293148841</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998885</v>
+        <v>392.355386399888</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486836</v>
+        <v>245.9832151486833</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304584</v>
+        <v>56.81462359304567</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964461</v>
+        <v>92.37140271964449</v>
       </c>
       <c r="K3" t="n">
-        <v>236.8217073473448</v>
+        <v>264.7752623539671</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536823</v>
+        <v>365.226456753682</v>
       </c>
       <c r="M3" t="n">
-        <v>445.754440505687</v>
+        <v>445.7544405056867</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457217</v>
+        <v>472.1064209457213</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150109</v>
+        <v>409.4409041150105</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593488</v>
+        <v>309.0840727593485</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1446415704849</v>
+        <v>156.1910865638648</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818102</v>
+        <v>44.16552030818093</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907985</v>
+        <v>203.7258368907984</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492526</v>
+        <v>316.7862385492525</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738701</v>
+        <v>344.5007355738699</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161536</v>
+        <v>341.7987896161534</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704531</v>
+        <v>299.528427670453</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292698</v>
+        <v>232.5400501292696</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.7208184704772</v>
+        <v>76.72081847047708</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>159.0482712280113</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,19 +35732,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066289</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>226.5827468655553</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
